--- a/Executable/dist/gamelistformat.xlsx
+++ b/Executable/dist/gamelistformat.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f8bef89e2a22750/Desktop/Python Projects/DMC selenium project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f8bef89e2a22750/Desktop/Python Projects/GitHubRepos/DMC-ecommerce-webscraper/Executable/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="68" documentId="8_{7757BD22-406C-4E21-AFA2-94B7DD2D0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49122A24-63EC-4F77-9C51-E4290ECD1CC4}"/>
@@ -188,10 +188,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -210,14 +210,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,74 +516,74 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.45">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
@@ -596,106 +592,106 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3" t="s">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3" t="s">
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3" t="s">
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3" t="s">
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3" t="s">
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3" t="s">
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3" t="s">
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3" t="s">
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3" t="s">
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3" t="s">
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -963,30 +959,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
     <mergeCell ref="BA1:BO1"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BL2"/>
     <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="W1:AK1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -997,7 +993,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1042,7 +1038,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Executable/dist/gamelistformat.xlsx
+++ b/Executable/dist/gamelistformat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f8bef89e2a22750/Desktop/Python Projects/GitHubRepos/DMC-ecommerce-webscraper/Executable/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{7757BD22-406C-4E21-AFA2-94B7DD2D0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49122A24-63EC-4F77-9C51-E4290ECD1CC4}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{7757BD22-406C-4E21-AFA2-94B7DD2D0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10C7C862-B7FD-43A0-A7C7-6CC3DDC2AE59}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{24654E41-2A60-456E-AE10-23C3CD4E63B9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{24654E41-2A60-456E-AE10-23C3CD4E63B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Amazon</t>
   </si>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A43549-7A69-4114-88F4-11251EAEA6AE}">
   <dimension ref="A1:BO8"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -897,20 +897,11 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -944,45 +935,33 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W1:AK1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -992,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E4A46C-85C9-4C80-941E-D3A7AA576541}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
